--- a/downloaded_files/MEPS411_Lecture-35723.xlsx
+++ b/downloaded_files/MEPS411_Lecture-35723.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>ِAhmed Ibrahim Mustafa Ibrahim Abdelkhalek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد اسامه حامد على دحروج</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed osama hamed Ali Dahroug</x:t>
   </x:si>
   <x:si>
     <x:t>1210187</x:t>
@@ -308,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -763,7 +754,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6785568287</x:v>
+        <x:v>45906.4157838773</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -795,7 +786,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4157838773</x:v>
+        <x:v>45909.4587482639</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -827,7 +818,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4587482639</x:v>
+        <x:v>45906.677180787</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -859,7 +850,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.677180787</x:v>
+        <x:v>45909.6847966088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +882,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6847966088</x:v>
+        <x:v>45913.4214077893</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.4214077893</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +946,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45906.4308738426</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +978,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4308738426</x:v>
+        <x:v>45906.4167829861</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4167829861</x:v>
+        <x:v>45906.6730399653</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6730399653</x:v>
+        <x:v>45906.6656476852</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6656476852</x:v>
+        <x:v>45906.4156922106</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4156922106</x:v>
+        <x:v>45906.5186452546</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.5186452546</x:v>
+        <x:v>45906.4167361458</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4167361458</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1202,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4212792477</x:v>
+        <x:v>45906.6656807523</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1228,38 +1219,6 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45906.6656807523</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS411_Lecture-35723.xlsx
+++ b/downloaded_files/MEPS411_Lecture-35723.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Nagham mohamed zein_alabdeen kamal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى محمد عبدالله ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yahia Muhammed Abdullah Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210092</x:t>
@@ -299,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1170,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4212792477</x:v>
+        <x:v>45926.9322805208</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6656807523</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1228,38 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45906.6656807523</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS411_Lecture-35723.xlsx
+++ b/downloaded_files/MEPS411_Lecture-35723.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Belal Maged Selmy Slim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد نزار محمود ناصيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KHALED NIZAR MAHMOUD NASSIF</x:t>
   </x:si>
   <x:si>
     <x:t>1210010</x:t>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -923,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45927.8726919792</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4308738426</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4167829861</x:v>
+        <x:v>45906.4308738426</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6730399653</x:v>
+        <x:v>45906.4167829861</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6656476852</x:v>
+        <x:v>45906.6730399653</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4156922106</x:v>
+        <x:v>45906.6656476852</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.5186452546</x:v>
+        <x:v>45906.4156922106</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4167361458</x:v>
+        <x:v>45906.5186452546</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45926.9322805208</x:v>
+        <x:v>45906.4167361458</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4212792477</x:v>
+        <x:v>45926.9322805208</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6656807523</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1269,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45906.6656807523</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS411_Lecture-35723.xlsx
+++ b/downloaded_files/MEPS411_Lecture-35723.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Nagham mohamed zein_alabdeen kamal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيى محمد عبدالله ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yahia Muhammed Abdullah Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210092</x:t>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1220,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45926.9322805208</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4212792477</x:v>
+        <x:v>45906.6656807523</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45906.6656807523</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS411_Lecture-35723.xlsx
+++ b/downloaded_files/MEPS411_Lecture-35723.xlsx
@@ -1266,11 +1266,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concentrated Solar Power (CSP) (MEPS411) Location : [20425]20425-32-الجيزة الرئيسي Time : Monday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concentrated Solar Power (CSP) (MEPS411) Location : [20425]20425-32-الجيزة الرئيسي Time : Monday(9:10)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concentrated Solar Power (CSP) (MEPS411) Location : [20425]20425-32-الجيزة الرئيسي Time : Monday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concentrated Solar Power (CSP) (MEPS411) Location : [20425]20425-32-الجيزة الرئيسي Time : Monday(9:10)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concentrated Solar Power (CSP) (MEPS411) Location : [20425]20425-32-الجيزة الرئيسي Time : Monday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Concentrated Solar Power (CSP) (MEPS411) Location : [20425]20425-32-الجيزة الرئيسي Time : Monday(9:10)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
